--- a/XING_MAT32001 - Lista de materiales/XING_MAT32001_A2.xlsx
+++ b/XING_MAT32001 - Lista de materiales/XING_MAT32001_A2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884E1D89-0530-4D2A-B137-D526DA4324C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6414DB-58D4-415A-9530-465BF71460CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="672" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materiales SIEMENS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="165">
   <si>
     <t>Material</t>
   </si>
@@ -506,6 +506,15 @@
   </si>
   <si>
     <t xml:space="preserve">Carcazas para Fichas de conexión DB15 Salida </t>
+  </si>
+  <si>
+    <t>Cable multipolar blindado 19x0.35mm2</t>
+  </si>
+  <si>
+    <t>Cable m 19x0.35</t>
+  </si>
+  <si>
+    <t>EC 1503 [m]</t>
   </si>
 </sst>
 </file>
@@ -622,7 +631,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -725,10 +734,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -1074,9 +1086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1333,7 @@
         <f t="shared" si="0"/>
         <v>80.8</v>
       </c>
-      <c r="F13" s="47"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
@@ -1478,11 +1490,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,7 +1575,7 @@
         <v>1.6659999999999999</v>
       </c>
       <c r="G3" s="20">
-        <f t="shared" ref="G3:G29" si="0">F3*E3</f>
+        <f t="shared" ref="G3:G30" si="0">F3*E3</f>
         <v>13.327999999999999</v>
       </c>
     </row>
@@ -1721,14 +1733,14 @@
         <v>4</v>
       </c>
       <c r="E10" s="40">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="F10" s="20">
         <v>0.44600000000000001</v>
       </c>
       <c r="G10" s="20">
         <f t="shared" si="0"/>
-        <v>169.48</v>
+        <v>187.32</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -2029,7 +2041,7 @@
         <v>135</v>
       </c>
       <c r="E23" s="40">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="20">
@@ -2039,140 +2051,153 @@
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="40">
-        <v>1</v>
-      </c>
-      <c r="F24" s="20">
-        <v>1.1100000000000001</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="F24" s="13"/>
       <c r="G24" s="20">
         <f t="shared" si="0"/>
-        <v>1.1100000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>5</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="40">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="F25" s="20">
-        <v>0.01</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G25" s="20">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="40">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F26" s="20">
-        <v>1.4E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G26" s="20">
         <f t="shared" si="0"/>
-        <v>1.4000000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="12"/>
+        <v>130</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="E27" s="40">
-        <v>2</v>
-      </c>
-      <c r="F27" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="F27" s="20">
+        <v>1.4E-2</v>
+      </c>
       <c r="G27" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4000000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="23"/>
+        <v>121</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D28" s="12"/>
       <c r="E28" s="40">
-        <v>1</v>
-      </c>
-      <c r="F28" s="20">
-        <v>166.58</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F28" s="20"/>
       <c r="G28" s="20">
         <f t="shared" si="0"/>
-        <v>166.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="C29" s="23"/>
       <c r="D29" s="12"/>
       <c r="E29" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="20">
-        <v>162</v>
+        <v>166.58</v>
       </c>
       <c r="G29" s="20">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>166.58</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="E30" s="40">
+        <v>2</v>
+      </c>
+      <c r="F30" s="20">
+        <v>162</v>
+      </c>
+      <c r="G30" s="20">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
@@ -2180,7 +2205,7 @@
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="40"/>
-      <c r="F31" s="13"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -2189,83 +2214,83 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="40"/>
-      <c r="F32" s="20"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>159</v>
-      </c>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E33" s="40">
-        <v>6</v>
-      </c>
-      <c r="F33" s="13"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12" t="s">
         <v>158</v>
       </c>
       <c r="E34" s="40">
-        <v>10</v>
-      </c>
-      <c r="F34" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="F34" s="13"/>
       <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E35" s="45">
-        <v>6</v>
+      <c r="E35" s="40">
+        <v>10</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12" t="s">
         <v>158</v>
       </c>
       <c r="E36" s="45">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="24"/>
+      <c r="D37" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="45">
+        <v>10</v>
+      </c>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
     </row>
@@ -2337,13 +2362,13 @@
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="40"/>
+      <c r="E45" s="24"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="40"/>
@@ -2351,8 +2376,8 @@
       <c r="G46" s="20"/>
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="40"/>
@@ -2364,16 +2389,16 @@
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
-      <c r="E48" s="24"/>
+      <c r="E48" s="40"/>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
     </row>
     <row r="49" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="B49" s="22"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="40"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
     </row>
@@ -2422,16 +2447,16 @@
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="40"/>
-      <c r="F55" s="13"/>
+      <c r="F55" s="20"/>
       <c r="G55" s="20"/>
     </row>
-    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -2460,7 +2485,7 @@
     </row>
     <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
-      <c r="B59" s="43"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="40"/>
@@ -2476,7 +2501,7 @@
       <c r="F60" s="13"/>
       <c r="G60" s="20"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="43"/>
       <c r="C61" s="12"/>
@@ -2494,9 +2519,9 @@
       <c r="F62" s="13"/>
       <c r="G62" s="20"/>
     </row>
-    <row r="63" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="40"/>
@@ -2545,28 +2570,37 @@
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="40"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="25"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F69" s="18" t="s">
+      <c r="F68" s="13"/>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="25"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F70" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G69" s="26">
-        <f>SUM(G2:G68)</f>
-        <v>3093.558</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="D73" s="5"/>
+      <c r="G70" s="26">
+        <f>SUM(G2:G69)</f>
+        <v>3111.3980000000001</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D76" s="5"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D77" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2838,7 +2872,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="48" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2857,7 +2891,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -2893,7 +2927,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2912,7 +2946,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="9" t="s">
         <v>40</v>
       </c>
@@ -3247,8 +3281,8 @@
         <v>67</v>
       </c>
       <c r="B3" s="13">
-        <f>'Materiales para TABLEROS'!G69</f>
-        <v>3093.558</v>
+        <f>'Materiales para TABLEROS'!G70</f>
+        <v>3111.3980000000001</v>
       </c>
       <c r="C3" t="s">
         <v>69</v>
@@ -3293,7 +3327,7 @@
       </c>
       <c r="B7" s="19">
         <f>SUM(B2:B6)</f>
-        <v>25821.678000000004</v>
+        <v>25839.518000000004</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3302,7 +3336,7 @@
       </c>
       <c r="B8" s="36">
         <f>B7*Horas!E12</f>
-        <v>2065734.2400000002</v>
+        <v>2067161.4400000004</v>
       </c>
     </row>
   </sheetData>

--- a/XING_MAT32001 - Lista de materiales/XING_MAT32001_A2.xlsx
+++ b/XING_MAT32001 - Lista de materiales/XING_MAT32001_A2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6414DB-58D4-415A-9530-465BF71460CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213602FE-ADD0-4BDE-B5AB-1E16B7358CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="672" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="166">
   <si>
     <t>Material</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>EC 1503 [m]</t>
+  </si>
+  <si>
+    <t>agregar bornes de hacia variador</t>
   </si>
 </sst>
 </file>
@@ -1493,8 +1496,8 @@
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,7 +2335,9 @@
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
+      <c r="B42" s="12" t="s">
+        <v>165</v>
+      </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="24"/>

--- a/XING_MAT32001 - Lista de materiales/XING_MAT32001_A2.xlsx
+++ b/XING_MAT32001 - Lista de materiales/XING_MAT32001_A2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213602FE-ADD0-4BDE-B5AB-1E16B7358CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ADC17D-05A2-4A64-9A2F-57D9C9751863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="672" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="165">
   <si>
     <t>Material</t>
   </si>
@@ -515,9 +515,6 @@
   </si>
   <si>
     <t>EC 1503 [m]</t>
-  </si>
-  <si>
-    <t>agregar bornes de hacia variador</t>
   </si>
 </sst>
 </file>
@@ -1495,9 +1492,9 @@
   </sheetPr>
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,14 +1733,14 @@
         <v>4</v>
       </c>
       <c r="E10" s="40">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="F10" s="20">
         <v>0.44600000000000001</v>
       </c>
       <c r="G10" s="20">
         <f t="shared" si="0"/>
-        <v>187.32</v>
+        <v>200.70000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -1784,14 +1781,14 @@
         <v>4</v>
       </c>
       <c r="E12" s="40">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F12" s="20">
         <v>0.373</v>
       </c>
       <c r="G12" s="20">
         <f t="shared" si="0"/>
-        <v>20.887999999999998</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -1902,14 +1899,14 @@
         <v>134</v>
       </c>
       <c r="E17" s="40">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F17" s="20">
         <v>0.161</v>
       </c>
       <c r="G17" s="20">
         <f t="shared" si="0"/>
-        <v>8.0500000000000007</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -1926,14 +1923,14 @@
         <v>134</v>
       </c>
       <c r="E18" s="40">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F18" s="20">
         <v>0.161</v>
       </c>
       <c r="G18" s="20">
         <f t="shared" si="0"/>
-        <v>8.0500000000000007</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -1950,14 +1947,14 @@
         <v>134</v>
       </c>
       <c r="E19" s="40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F19" s="20">
         <v>0.161</v>
       </c>
       <c r="G19" s="20">
         <f t="shared" si="0"/>
-        <v>16.100000000000001</v>
+        <v>8.0500000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -1974,14 +1971,14 @@
         <v>134</v>
       </c>
       <c r="E20" s="40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F20" s="20">
         <v>0.161</v>
       </c>
       <c r="G20" s="20">
         <f t="shared" si="0"/>
-        <v>16.100000000000001</v>
+        <v>8.0500000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -1998,14 +1995,14 @@
         <v>134</v>
       </c>
       <c r="E21" s="40">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F21" s="20">
         <v>0.112</v>
       </c>
       <c r="G21" s="20">
         <f t="shared" si="0"/>
-        <v>44.800000000000004</v>
+        <v>22.400000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -2022,7 +2019,7 @@
         <v>135</v>
       </c>
       <c r="E22" s="40">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="20">
@@ -2044,7 +2041,7 @@
         <v>135</v>
       </c>
       <c r="E23" s="40">
-        <v>4.5</v>
+        <v>15</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="20">
@@ -2066,7 +2063,7 @@
         <v>135</v>
       </c>
       <c r="E24" s="47">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="20">
@@ -2108,14 +2105,14 @@
         <v>5</v>
       </c>
       <c r="E26" s="40">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F26" s="20">
         <v>0.01</v>
       </c>
       <c r="G26" s="20">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -2154,7 +2151,7 @@
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="20">
@@ -2335,9 +2332,7 @@
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
-      <c r="B42" s="12" t="s">
-        <v>165</v>
-      </c>
+      <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="24"/>
@@ -2593,7 +2588,7 @@
       </c>
       <c r="G70" s="26">
         <f>SUM(G2:G69)</f>
-        <v>3111.3980000000001</v>
+        <v>3075.1099999999997</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3287,7 +3282,7 @@
       </c>
       <c r="B3" s="13">
         <f>'Materiales para TABLEROS'!G70</f>
-        <v>3111.3980000000001</v>
+        <v>3075.1099999999997</v>
       </c>
       <c r="C3" t="s">
         <v>69</v>
@@ -3332,7 +3327,7 @@
       </c>
       <c r="B7" s="19">
         <f>SUM(B2:B6)</f>
-        <v>25839.518000000004</v>
+        <v>25803.230000000003</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3341,7 +3336,7 @@
       </c>
       <c r="B8" s="36">
         <f>B7*Horas!E12</f>
-        <v>2067161.4400000004</v>
+        <v>2064258.4000000004</v>
       </c>
     </row>
   </sheetData>

--- a/XING_MAT32001 - Lista de materiales/XING_MAT32001_A2.xlsx
+++ b/XING_MAT32001 - Lista de materiales/XING_MAT32001_A2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ADC17D-05A2-4A64-9A2F-57D9C9751863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609454A7-395B-475C-A5DA-C107D4004A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="672" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,7 +569,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,6 +596,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -631,7 +637,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,6 +744,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,7 +1095,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,17 +1499,17 @@
   </sheetPr>
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
@@ -1556,7 +1563,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="48" t="s">
         <v>107</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1580,7 +1587,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="48" t="s">
         <v>136</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1602,7 +1609,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="48" t="s">
         <v>138</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -1624,7 +1631,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="48" t="s">
         <v>139</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1648,7 +1655,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="48" t="s">
         <v>142</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -1672,7 +1679,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="48" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -1696,7 +1703,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="48" t="s">
         <v>144</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -1720,7 +1727,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="48" t="s">
         <v>140</v>
       </c>
       <c r="B10" s="22" t="s">
@@ -1744,7 +1751,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="48" t="s">
         <v>141</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -1768,7 +1775,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="48" t="s">
         <v>145</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -1792,7 +1799,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="48" t="s">
         <v>137</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -1838,7 +1845,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="48" t="s">
         <v>147</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -1862,7 +1869,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="48" t="s">
         <v>148</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -1886,7 +1893,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="48" t="s">
         <v>113</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -1910,7 +1917,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="48" t="s">
         <v>114</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -1934,7 +1941,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="48" t="s">
         <v>115</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -1958,7 +1965,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="48" t="s">
         <v>116</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1982,7 +1989,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="48" t="s">
         <v>117</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -2006,7 +2013,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="48" t="s">
         <v>149</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -2028,7 +2035,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="48" t="s">
         <v>150</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -2072,7 +2079,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="48" t="s">
         <v>151</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -2092,7 +2099,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="48" t="s">
         <v>152</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -2116,7 +2123,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="48" t="s">
         <v>153</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -2140,7 +2147,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="48" t="s">
         <v>154</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -2160,7 +2167,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="48" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -2180,7 +2187,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="48" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -2227,7 +2234,7 @@
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="48" t="s">
         <v>155</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -2244,7 +2251,7 @@
       <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="48" t="s">
         <v>157</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -2261,7 +2268,7 @@
       <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="48" t="s">
         <v>155</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -2278,7 +2285,7 @@
       <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="48" t="s">
         <v>157</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -2872,7 +2879,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2891,7 +2898,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -2927,7 +2934,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2946,7 +2953,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="9" t="s">
         <v>40</v>
       </c>

--- a/XING_MAT32001 - Lista de materiales/XING_MAT32001_A2.xlsx
+++ b/XING_MAT32001 - Lista de materiales/XING_MAT32001_A2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609454A7-395B-475C-A5DA-C107D4004A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB559DCF-DE10-40E2-AFDF-4D658A7FD3A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="672" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1094,8 +1094,8 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,8 +1500,8 @@
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/XING_MAT32001 - Lista de materiales/XING_MAT32001_A2.xlsx
+++ b/XING_MAT32001 - Lista de materiales/XING_MAT32001_A2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB559DCF-DE10-40E2-AFDF-4D658A7FD3A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A194BA91-3894-4B77-9C0E-562FD18ED135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="672" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="3540" windowWidth="18000" windowHeight="9360" tabRatio="672" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materiales SIEMENS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="174">
   <si>
     <t>Material</t>
   </si>
@@ -289,9 +289,6 @@
     <t>6ES7972-0BA52-0XA0</t>
   </si>
   <si>
-    <t>MAE1-2405</t>
-  </si>
-  <si>
     <t>5SL3206-7MB</t>
   </si>
   <si>
@@ -340,9 +337,6 @@
     <t>Altrup</t>
   </si>
   <si>
-    <t>Conversor HTL a TTL</t>
-  </si>
-  <si>
     <t>Borne Portafusible</t>
   </si>
   <si>
@@ -358,9 +352,6 @@
     <t>Puente x10 para Borne 2.5mm2 Zoloda</t>
   </si>
   <si>
-    <t>Placa Tablero 800x547 (a verificar)</t>
-  </si>
-  <si>
     <t>Cable 1.5mm2 Marrón</t>
   </si>
   <si>
@@ -400,9 +391,6 @@
     <t>JSSB-10-05/BPN</t>
   </si>
   <si>
-    <t>800x547</t>
-  </si>
-  <si>
     <t>EC 0703 [m]</t>
   </si>
   <si>
@@ -515,6 +503,45 @@
   </si>
   <si>
     <t>EC 1503 [m]</t>
+  </si>
+  <si>
+    <t>Puente corne rele</t>
+  </si>
+  <si>
+    <t>Puesta a tierra , barra</t>
+  </si>
+  <si>
+    <t>Puesta a tierra, Caballete</t>
+  </si>
+  <si>
+    <t>Puesta a tierra , Gampa</t>
+  </si>
+  <si>
+    <t>Puente enchufable 10 polos para Borne Relé 6.4mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZQV 1.5N/R6.4/10 GE </t>
+  </si>
+  <si>
+    <t>SK14 grampa de 3 a 14 mm</t>
+  </si>
+  <si>
+    <t>AB/SS-M Caballete con contacto a superficie</t>
+  </si>
+  <si>
+    <t>NLS-CU 3/10 SN 1000MM Colectora de neutro</t>
+  </si>
+  <si>
+    <t>MAEP-240524</t>
+  </si>
+  <si>
+    <t>Conversor HTL a TTL y HTL</t>
+  </si>
+  <si>
+    <t>Placa Tablero 800x480 (a verificar)</t>
+  </si>
+  <si>
+    <t>800x480</t>
   </si>
 </sst>
 </file>
@@ -637,7 +664,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -745,6 +772,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,8 +1124,8 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1160,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="37">
         <v>4</v>
@@ -1148,7 +1178,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="37">
         <v>4</v>
@@ -1166,7 +1196,7 @@
         <v>83</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="37">
         <v>1</v>
@@ -1184,7 +1214,7 @@
         <v>84</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="37">
         <v>1</v>
@@ -1202,7 +1232,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="37">
         <v>4</v>
@@ -1220,7 +1250,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="37">
         <v>4</v>
@@ -1238,7 +1268,7 @@
         <v>87</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="37">
         <v>4</v>
@@ -1256,7 +1286,7 @@
         <v>88</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="37">
         <v>4</v>
@@ -1271,10 +1301,10 @@
     </row>
     <row r="10" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="37">
         <v>4</v>
@@ -1289,10 +1319,10 @@
     </row>
     <row r="11" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="37">
         <v>8</v>
@@ -1310,7 +1340,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="37">
         <v>8</v>
@@ -1328,7 +1358,7 @@
         <v>58</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="37">
         <v>8</v>
@@ -1497,11 +1527,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,17 +1569,17 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>106</v>
+      <c r="A2" s="48" t="s">
+        <v>171</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="E2" s="40">
         <v>8</v>
@@ -1564,10 +1594,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>24</v>
@@ -1582,19 +1612,19 @@
         <v>1.6659999999999999</v>
       </c>
       <c r="G3" s="20">
-        <f t="shared" ref="G3:G30" si="0">F3*E3</f>
+        <f t="shared" ref="G3:G31" si="0">F3*E3</f>
         <v>13.327999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>4</v>
@@ -1610,7 +1640,7 @@
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>17</v>
@@ -1619,7 +1649,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E5" s="40">
         <v>40</v>
@@ -1632,302 +1662,298 @@
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="40">
-        <v>4</v>
-      </c>
-      <c r="F6" s="20">
-        <v>9.0500000000000007</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="49">
+        <v>12</v>
+      </c>
+      <c r="F6" s="20"/>
       <c r="G6" s="20">
         <f t="shared" si="0"/>
-        <v>36.200000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="40">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="20">
-        <v>0.54600000000000004</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="G7" s="20">
         <f t="shared" si="0"/>
-        <v>4.3680000000000003</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="40">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" s="20">
-        <v>1.796</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G8" s="20">
         <f t="shared" si="0"/>
-        <v>7.1840000000000002</v>
+        <v>4.3680000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="40">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F9" s="20">
-        <v>0.159</v>
+        <v>1.796</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" si="0"/>
-        <v>6.9960000000000004</v>
+        <v>7.1840000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>7</v>
+      <c r="B10" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="40">
-        <v>450</v>
+        <v>44</v>
       </c>
       <c r="F10" s="20">
-        <v>0.44600000000000001</v>
+        <v>0.159</v>
       </c>
       <c r="G10" s="20">
         <f t="shared" si="0"/>
-        <v>200.70000000000002</v>
+        <v>6.9960000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>111</v>
+        <v>136</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="40">
-        <v>16</v>
+        <v>450</v>
       </c>
       <c r="F11" s="20">
-        <v>3.266</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="G11" s="20">
         <f t="shared" si="0"/>
-        <v>52.256</v>
+        <v>200.70000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="40">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="F12" s="20">
-        <v>0.373</v>
+        <v>3.266</v>
       </c>
       <c r="G12" s="20">
         <f t="shared" si="0"/>
-        <v>22.38</v>
+        <v>52.256</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="40">
+        <v>60</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0.373</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="0"/>
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="40">
         <v>44</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F14" s="20">
         <v>0.52800000000000002</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G14" s="20">
         <f t="shared" si="0"/>
         <v>23.231999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="40">
-        <v>4</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="40">
         <v>4</v>
       </c>
-      <c r="E15" s="40">
-        <v>8</v>
-      </c>
-      <c r="F15" s="20">
-        <v>4.5439999999999996</v>
-      </c>
+      <c r="F15" s="20"/>
       <c r="G15" s="20">
         <f t="shared" si="0"/>
-        <v>36.351999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="40">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F16" s="20">
-        <v>2.7709999999999999</v>
+        <v>4.5439999999999996</v>
       </c>
       <c r="G16" s="20">
         <f t="shared" si="0"/>
-        <v>11.084</v>
+        <v>36.351999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="E17" s="40">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F17" s="20">
-        <v>0.161</v>
+        <v>2.7709999999999999</v>
       </c>
       <c r="G17" s="20">
         <f t="shared" si="0"/>
-        <v>3.22</v>
+        <v>11.084</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E18" s="40">
         <v>20</v>
@@ -1942,40 +1968,40 @@
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E19" s="40">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F19" s="20">
         <v>0.161</v>
       </c>
       <c r="G19" s="20">
         <f t="shared" si="0"/>
-        <v>8.0500000000000007</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E20" s="40">
         <v>50</v>
@@ -1990,87 +2016,89 @@
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E21" s="40">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F21" s="20">
-        <v>0.112</v>
+        <v>0.161</v>
       </c>
       <c r="G21" s="20">
         <f t="shared" si="0"/>
-        <v>22.400000000000002</v>
+        <v>8.0500000000000007</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E22" s="40">
-        <v>6</v>
-      </c>
-      <c r="F22" s="20"/>
+        <v>200</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0.112</v>
+      </c>
       <c r="G22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.400000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E23" s="40">
+        <v>6</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="40">
         <v>15</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" s="47">
-        <v>0</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="20">
@@ -2080,140 +2108,153 @@
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="40">
-        <v>1</v>
-      </c>
-      <c r="F25" s="20">
-        <v>1.1100000000000001</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="47">
+        <v>2</v>
+      </c>
+      <c r="F25" s="13"/>
       <c r="G25" s="20">
         <f t="shared" si="0"/>
-        <v>1.1100000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>5</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="40">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="F26" s="20">
-        <v>0.01</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G26" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="40">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F27" s="20">
-        <v>1.4E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G27" s="20">
         <f t="shared" si="0"/>
-        <v>1.4000000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="E28" s="40">
-        <v>1</v>
-      </c>
-      <c r="F28" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="F28" s="20">
+        <v>1.4E-2</v>
+      </c>
       <c r="G28" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4000000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="23"/>
+        <v>118</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>127</v>
+      </c>
       <c r="D29" s="12"/>
       <c r="E29" s="40">
         <v>1</v>
       </c>
-      <c r="F29" s="20">
-        <v>166.58</v>
-      </c>
+      <c r="F29" s="20"/>
       <c r="G29" s="20">
         <f t="shared" si="0"/>
-        <v>166.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="C30" s="23"/>
       <c r="D30" s="12"/>
       <c r="E30" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="20">
-        <v>162</v>
+        <v>166.58</v>
       </c>
       <c r="G30" s="20">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>166.58</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
+      <c r="E31" s="40">
+        <v>2</v>
+      </c>
+      <c r="F31" s="20">
+        <v>162</v>
+      </c>
+      <c r="G31" s="20">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -2221,7 +2262,7 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="40"/>
-      <c r="F32" s="13"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -2230,83 +2271,83 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="40"/>
-      <c r="F33" s="20"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>159</v>
-      </c>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" s="40">
-        <v>6</v>
-      </c>
-      <c r="F34" s="13"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E35" s="40">
-        <v>10</v>
-      </c>
-      <c r="F35" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="F35" s="13"/>
       <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" s="45">
-        <v>6</v>
+        <v>154</v>
+      </c>
+      <c r="E36" s="40">
+        <v>10</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E37" s="45">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="24"/>
+      <c r="D38" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="45">
+        <v>10</v>
+      </c>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
     </row>
@@ -2320,29 +2361,53 @@
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="12">
+        <v>402174</v>
+      </c>
       <c r="D40" s="12"/>
-      <c r="E40" s="24"/>
+      <c r="E40" s="49">
+        <v>1</v>
+      </c>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="A41" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="12">
+        <v>3025888</v>
+      </c>
       <c r="D41" s="12"/>
-      <c r="E41" s="24"/>
+      <c r="E41" s="49">
+        <v>1</v>
+      </c>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
+      <c r="A42" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="12">
+        <v>3025176</v>
+      </c>
       <c r="D42" s="12"/>
-      <c r="E42" s="24"/>
+      <c r="E42" s="49">
+        <v>2</v>
+      </c>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
     </row>
@@ -2378,13 +2443,13 @@
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
-      <c r="E46" s="40"/>
+      <c r="E46" s="24"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="40"/>
@@ -2392,8 +2457,8 @@
       <c r="G47" s="20"/>
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="40"/>
@@ -2405,16 +2470,16 @@
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="24"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
-      <c r="B50" s="22"/>
+      <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
-      <c r="E50" s="40"/>
+      <c r="E50" s="24"/>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
     </row>
@@ -2463,16 +2528,16 @@
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="40"/>
-      <c r="F56" s="13"/>
+      <c r="F56" s="20"/>
       <c r="G56" s="20"/>
     </row>
-    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -2501,7 +2566,7 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
-      <c r="B60" s="43"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="40"/>
@@ -2517,7 +2582,7 @@
       <c r="F61" s="13"/>
       <c r="G61" s="20"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="43"/>
       <c r="C62" s="12"/>
@@ -2535,9 +2600,9 @@
       <c r="F63" s="13"/>
       <c r="G63" s="20"/>
     </row>
-    <row r="64" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="40"/>
@@ -2586,28 +2651,37 @@
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="40"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="25"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F70" s="18" t="s">
+      <c r="F69" s="13"/>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="25"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F71" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G70" s="26">
-        <f>SUM(G2:G69)</f>
+      <c r="G71" s="26">
+        <f>SUM(G2:G70)</f>
         <v>3075.1099999999997</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D77" s="5"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D78" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2879,7 +2953,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2898,7 +2972,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -2934,7 +3008,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2953,7 +3027,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="9" t="s">
         <v>40</v>
       </c>
@@ -3288,7 +3362,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="13">
-        <f>'Materiales para TABLEROS'!G70</f>
+        <f>'Materiales para TABLEROS'!G71</f>
         <v>3075.1099999999997</v>
       </c>
       <c r="C3" t="s">

--- a/XING_MAT32001 - Lista de materiales/XING_MAT32001_A2.xlsx
+++ b/XING_MAT32001 - Lista de materiales/XING_MAT32001_A2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A194BA91-3894-4B77-9C0E-562FD18ED135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194F83B9-8667-45FF-8710-7DF369013CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="3540" windowWidth="18000" windowHeight="9360" tabRatio="672" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3540" windowWidth="18000" windowHeight="9360" tabRatio="672" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materiales SIEMENS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="171">
   <si>
     <t>Material</t>
   </si>
@@ -494,15 +494,6 @@
   </si>
   <si>
     <t xml:space="preserve">Carcazas para Fichas de conexión DB15 Salida </t>
-  </si>
-  <si>
-    <t>Cable multipolar blindado 19x0.35mm2</t>
-  </si>
-  <si>
-    <t>Cable m 19x0.35</t>
-  </si>
-  <si>
-    <t>EC 1503 [m]</t>
   </si>
   <si>
     <t>Puente corne rele</t>
@@ -664,7 +655,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,9 +759,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1527,11 +1515,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,14 +1557,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>171</v>
+      <c r="A2" s="47" t="s">
+        <v>168</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>104</v>
@@ -1593,7 +1581,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>105</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1612,12 +1600,12 @@
         <v>1.6659999999999999</v>
       </c>
       <c r="G3" s="20">
-        <f t="shared" ref="G3:G31" si="0">F3*E3</f>
+        <f t="shared" ref="G3:G30" si="0">F3*E3</f>
         <v>13.327999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>132</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1639,7 +1627,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -1661,17 +1649,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>161</v>
+      <c r="A6" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="49">
+      <c r="E6" s="48">
         <v>12</v>
       </c>
       <c r="F6" s="20"/>
@@ -1681,7 +1669,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>135</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -1705,7 +1693,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="47" t="s">
         <v>138</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -1729,7 +1717,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="47" t="s">
         <v>139</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -1753,7 +1741,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47" t="s">
         <v>140</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -1777,7 +1765,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>136</v>
       </c>
       <c r="B11" s="22" t="s">
@@ -1801,7 +1789,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="47" t="s">
         <v>137</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -1825,7 +1813,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="47" t="s">
         <v>141</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -1849,7 +1837,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="47" t="s">
         <v>133</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -1873,14 +1861,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="47" t="s">
         <v>142</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>129</v>
@@ -1895,7 +1883,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="47" t="s">
         <v>143</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -1919,7 +1907,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="47" t="s">
         <v>144</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -1943,7 +1931,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="47" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -1967,7 +1955,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="47" t="s">
         <v>111</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -1991,7 +1979,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="47" t="s">
         <v>112</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -2015,7 +2003,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="47" t="s">
         <v>113</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -2039,7 +2027,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="47" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -2063,7 +2051,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="47" t="s">
         <v>145</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -2085,7 +2073,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="47" t="s">
         <v>146</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -2098,7 +2086,7 @@
         <v>131</v>
       </c>
       <c r="E24" s="40">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="20">
@@ -2107,154 +2095,141 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>159</v>
+      <c r="A25" s="47" t="s">
+        <v>147</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="47">
-        <v>2</v>
-      </c>
-      <c r="F25" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="40">
+        <v>1</v>
+      </c>
+      <c r="F25" s="20">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="G25" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
-        <v>147</v>
+      <c r="A26" s="47" t="s">
+        <v>148</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+        <v>117</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="E26" s="40">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="F26" s="20">
-        <v>1.1100000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="G26" s="20">
         <f t="shared" si="0"/>
-        <v>1.1100000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
-        <v>148</v>
+      <c r="A27" s="47" t="s">
+        <v>149</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="40">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F27" s="20">
-        <v>0.01</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G27" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1.4000000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
-        <v>149</v>
+      <c r="A28" s="47" t="s">
+        <v>150</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>5</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D28" s="12"/>
       <c r="E28" s="40">
-        <v>100</v>
-      </c>
-      <c r="F28" s="20">
-        <v>1.4E-2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F28" s="20"/>
       <c r="G28" s="20">
         <f t="shared" si="0"/>
-        <v>1.4000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
-        <v>150</v>
+      <c r="A29" s="47" t="s">
+        <v>73</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>127</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C29" s="23"/>
       <c r="D29" s="12"/>
       <c r="E29" s="40">
         <v>1</v>
       </c>
-      <c r="F29" s="20"/>
+      <c r="F29" s="20">
+        <v>166.58</v>
+      </c>
       <c r="G29" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>166.58</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
-        <v>73</v>
+      <c r="A30" s="47" t="s">
+        <v>71</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="23"/>
+        <v>72</v>
+      </c>
+      <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="20">
-        <v>166.58</v>
+        <v>162</v>
       </c>
       <c r="G30" s="20">
         <f t="shared" si="0"/>
-        <v>166.58</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="40">
-        <v>2</v>
-      </c>
-      <c r="F31" s="20">
-        <v>162</v>
-      </c>
-      <c r="G31" s="20">
-        <f t="shared" si="0"/>
-        <v>324</v>
-      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -2262,7 +2237,7 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="40"/>
-      <c r="F32" s="20"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -2271,143 +2246,143 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="40"/>
-      <c r="F33" s="13"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>155</v>
+      </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="20"/>
+      <c r="D34" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="40">
+        <v>6</v>
+      </c>
+      <c r="F34" s="13"/>
       <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
-        <v>151</v>
+      <c r="A35" s="47" t="s">
+        <v>153</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12" t="s">
         <v>154</v>
       </c>
       <c r="E35" s="40">
-        <v>6</v>
-      </c>
-      <c r="F35" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="F35" s="20"/>
       <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
-        <v>153</v>
+      <c r="A36" s="47" t="s">
+        <v>151</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="E36" s="40">
-        <v>10</v>
+      <c r="E36" s="45">
+        <v>6</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
-        <v>151</v>
+      <c r="A37" s="47" t="s">
+        <v>153</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12" t="s">
         <v>154</v>
       </c>
       <c r="E37" s="45">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>157</v>
-      </c>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="45">
-        <v>10</v>
-      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
+      <c r="A39" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="12">
+        <v>402174</v>
+      </c>
       <c r="D39" s="12"/>
-      <c r="E39" s="24"/>
+      <c r="E39" s="48">
+        <v>1</v>
+      </c>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
-        <v>162</v>
+      <c r="A40" s="47" t="s">
+        <v>160</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C40" s="12">
-        <v>402174</v>
+        <v>3025888</v>
       </c>
       <c r="D40" s="12"/>
-      <c r="E40" s="49">
+      <c r="E40" s="48">
         <v>1</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
-        <v>163</v>
+      <c r="A41" s="47" t="s">
+        <v>161</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C41" s="12">
-        <v>3025888</v>
+        <v>3025176</v>
       </c>
       <c r="D41" s="12"/>
-      <c r="E41" s="49">
-        <v>1</v>
+      <c r="E41" s="48">
+        <v>2</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C42" s="12">
-        <v>3025176</v>
-      </c>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="49">
-        <v>2</v>
-      </c>
+      <c r="E42" s="24"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
     </row>
@@ -2443,13 +2418,13 @@
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
-      <c r="E46" s="24"/>
+      <c r="E46" s="40"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="40"/>
@@ -2457,8 +2432,8 @@
       <c r="G47" s="20"/>
     </row>
     <row r="48" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="40"/>
@@ -2470,16 +2445,16 @@
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="40"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
     </row>
     <row r="50" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
-      <c r="E50" s="24"/>
+      <c r="E50" s="40"/>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
     </row>
@@ -2528,16 +2503,16 @@
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
     </row>
-    <row r="56" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="B56" s="22"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="40"/>
-      <c r="F56" s="20"/>
+      <c r="F56" s="13"/>
       <c r="G56" s="20"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -2566,7 +2541,7 @@
     </row>
     <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="40"/>
@@ -2582,7 +2557,7 @@
       <c r="F61" s="13"/>
       <c r="G61" s="20"/>
     </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="43"/>
       <c r="C62" s="12"/>
@@ -2600,9 +2575,9 @@
       <c r="F63" s="13"/>
       <c r="G63" s="20"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
-      <c r="B64" s="43"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="40"/>
@@ -2651,37 +2626,28 @@
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="40"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="20"/>
-    </row>
-    <row r="70" spans="1:7" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="25"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F71" s="18" t="s">
+      <c r="F69" s="20"/>
+      <c r="G69" s="25"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F70" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G71" s="26">
-        <f>SUM(G2:G70)</f>
+      <c r="G70" s="26">
+        <f>SUM(G2:G69)</f>
         <v>3075.1099999999997</v>
       </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D78" s="5"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D77" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2953,7 +2919,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2972,7 +2938,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
@@ -3008,7 +2974,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -3027,7 +2993,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="9" t="s">
         <v>40</v>
       </c>
@@ -3362,7 +3328,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="13">
-        <f>'Materiales para TABLEROS'!G71</f>
+        <f>'Materiales para TABLEROS'!G70</f>
         <v>3075.1099999999997</v>
       </c>
       <c r="C3" t="s">
